--- a/teaching/traditional_assets/database/data/philippines/philippines_furn_home_furnishings.xlsx
+++ b/teaching/traditional_assets/database/data/philippines/philippines_furn_home_furnishings.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.119</v>
+        <v>0.0713</v>
       </c>
       <c r="E2">
-        <v>0.0378</v>
+        <v>-0.307</v>
       </c>
       <c r="G2">
-        <v>0.03590750436300175</v>
+        <v>0.03741626794258374</v>
       </c>
       <c r="H2">
-        <v>0.03106457242582897</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="I2">
-        <v>0.01972076788830715</v>
+        <v>0.002631578947368421</v>
       </c>
       <c r="J2">
-        <v>0.0120907088839026</v>
+        <v>0.001315789473684211</v>
       </c>
       <c r="K2">
-        <v>4.11</v>
+        <v>0.706</v>
       </c>
       <c r="L2">
-        <v>0.01793193717277487</v>
+        <v>0.003377990430622009</v>
       </c>
       <c r="M2">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="N2">
-        <v>0.03783185840707964</v>
+        <v>0.02742616033755274</v>
       </c>
       <c r="O2">
-        <v>0.4160583941605839</v>
+        <v>1.841359773371105</v>
       </c>
       <c r="P2">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="Q2">
-        <v>0.03783185840707964</v>
+        <v>0.02742616033755274</v>
       </c>
       <c r="R2">
-        <v>0.4160583941605839</v>
+        <v>1.841359773371105</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +639,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>72.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="V2">
-        <v>1.595132743362832</v>
+        <v>1.529535864978903</v>
       </c>
       <c r="W2">
-        <v>0.05</v>
+        <v>0.00815242494226328</v>
       </c>
       <c r="X2">
-        <v>0.09126986904877425</v>
+        <v>0.07657972321424952</v>
       </c>
       <c r="Y2">
-        <v>-0.04126986904877425</v>
+        <v>-0.06842729827198624</v>
       </c>
       <c r="Z2">
-        <v>9.471074380165287</v>
+        <v>13.66013071895425</v>
       </c>
       <c r="AA2">
-        <v>0.1145120031483668</v>
+        <v>0.01797385620915033</v>
       </c>
       <c r="AB2">
-        <v>0.09021962451033531</v>
+        <v>0.07652357922805854</v>
       </c>
       <c r="AC2">
-        <v>0.02429237863803146</v>
+        <v>-0.05854972301890821</v>
       </c>
       <c r="AD2">
-        <v>0.8</v>
+        <v>0.057</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.8</v>
+        <v>0.057</v>
       </c>
       <c r="AG2">
-        <v>-71.3</v>
+        <v>-72.443</v>
       </c>
       <c r="AH2">
-        <v>0.01739130434782609</v>
+        <v>0.00120108730008218</v>
       </c>
       <c r="AI2">
-        <v>0.009009009009009009</v>
+        <v>0.0006212060115304554</v>
       </c>
       <c r="AJ2">
-        <v>2.731800766283525</v>
+        <v>2.892744479495268</v>
       </c>
       <c r="AK2">
-        <v>-4.26946107784431</v>
+        <v>-3.761904761904761</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-1.52</v>
+        <v>-1.05</v>
       </c>
       <c r="AN2">
-        <v>0.09122006841505131</v>
+        <v>0.0103448275862069</v>
       </c>
       <c r="AP2">
-        <v>-8.129988597491447</v>
+        <v>-13.1475499092559</v>
       </c>
       <c r="AQ2">
-        <v>-2.973684210526315</v>
+        <v>-0.5238095238095238</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +722,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.119</v>
+        <v>0.0713</v>
       </c>
       <c r="E3">
-        <v>0.0378</v>
+        <v>-0.307</v>
       </c>
       <c r="G3">
-        <v>0.03590750436300175</v>
+        <v>0.03741626794258374</v>
       </c>
       <c r="H3">
-        <v>0.03106457242582897</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="I3">
-        <v>0.01972076788830715</v>
+        <v>0.002631578947368421</v>
       </c>
       <c r="J3">
-        <v>0.0120907088839026</v>
+        <v>0.001315789473684211</v>
       </c>
       <c r="K3">
-        <v>4.11</v>
+        <v>0.706</v>
       </c>
       <c r="L3">
-        <v>0.01793193717277487</v>
+        <v>0.003377990430622009</v>
       </c>
       <c r="M3">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="N3">
-        <v>0.03783185840707964</v>
+        <v>0.02742616033755274</v>
       </c>
       <c r="O3">
-        <v>0.4160583941605839</v>
+        <v>1.841359773371105</v>
       </c>
       <c r="P3">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="Q3">
-        <v>0.03783185840707964</v>
+        <v>0.02742616033755274</v>
       </c>
       <c r="R3">
-        <v>0.4160583941605839</v>
+        <v>1.841359773371105</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,70 +770,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>72.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="V3">
-        <v>1.595132743362832</v>
+        <v>1.529535864978903</v>
       </c>
       <c r="W3">
-        <v>0.05</v>
+        <v>0.00815242494226328</v>
       </c>
       <c r="X3">
-        <v>0.09126986904877425</v>
+        <v>0.07657972321424952</v>
       </c>
       <c r="Y3">
-        <v>-0.04126986904877425</v>
+        <v>-0.06842729827198624</v>
       </c>
       <c r="Z3">
-        <v>9.471074380165287</v>
+        <v>13.66013071895425</v>
       </c>
       <c r="AA3">
-        <v>0.1145120031483668</v>
+        <v>0.01797385620915033</v>
       </c>
       <c r="AB3">
-        <v>0.09021962451033531</v>
+        <v>0.07652357922805854</v>
       </c>
       <c r="AC3">
-        <v>0.02429237863803146</v>
+        <v>-0.05854972301890821</v>
       </c>
       <c r="AD3">
-        <v>0.8</v>
+        <v>0.057</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.8</v>
+        <v>0.057</v>
       </c>
       <c r="AG3">
-        <v>-71.3</v>
+        <v>-72.443</v>
       </c>
       <c r="AH3">
-        <v>0.01739130434782609</v>
+        <v>0.00120108730008218</v>
       </c>
       <c r="AI3">
-        <v>0.009009009009009009</v>
+        <v>0.0006212060115304554</v>
       </c>
       <c r="AJ3">
-        <v>2.731800766283525</v>
+        <v>2.892744479495268</v>
       </c>
       <c r="AK3">
-        <v>-4.26946107784431</v>
+        <v>-3.761904761904761</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.52</v>
+        <v>-1.05</v>
       </c>
       <c r="AN3">
-        <v>0.09122006841505131</v>
+        <v>0.0103448275862069</v>
       </c>
       <c r="AP3">
-        <v>-8.129988597491447</v>
+        <v>-13.1475499092559</v>
       </c>
       <c r="AQ3">
-        <v>-2.973684210526315</v>
+        <v>-0.5238095238095238</v>
       </c>
     </row>
   </sheetData>
